--- a/doc/log/log_201608040228_lusitong.xlsx
+++ b/doc/log/log_201608040228_lusitong.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日志" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>日期</t>
   </si>
@@ -25,19 +25,193 @@
     <t>原计划</t>
   </si>
   <si>
-    <t>已完成</t>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
   </si>
   <si>
     <t>2018.5.1</t>
   </si>
   <si>
-    <t>14:00-16:00</t>
-  </si>
-  <si>
-    <t>由于对相关知识还不透彻，目前还在参考和学习老师的项目。</t>
-  </si>
-  <si>
-    <t>已差不多完成</t>
+    <t>10：00-12：30</t>
+  </si>
+  <si>
+    <t>学会安装jdk，配置jdk</t>
+  </si>
+  <si>
+    <t>在同学帮助下完成</t>
+  </si>
+  <si>
+    <t>2018.5.2</t>
+  </si>
+  <si>
+    <t>8：00-12：00</t>
+  </si>
+  <si>
+    <t>了解配置Tomcat服务器</t>
+  </si>
+  <si>
+    <t>配置完成</t>
+  </si>
+  <si>
+    <t>2018.5.3</t>
+  </si>
+  <si>
+    <t>10：00-12：00</t>
+  </si>
+  <si>
+    <t>配置maven环境变量</t>
+  </si>
+  <si>
+    <t>2018.5.4</t>
+  </si>
+  <si>
+    <t>18：00-20：30</t>
+  </si>
+  <si>
+    <t>了解HTML语言的语法，各种标签</t>
+  </si>
+  <si>
+    <t>还在学习中</t>
+  </si>
+  <si>
+    <t>2018.5.5</t>
+  </si>
+  <si>
+    <t>了解javabean的特点和事件模型</t>
+  </si>
+  <si>
+    <t>2018.5.6</t>
+  </si>
+  <si>
+    <t>21：00-23：00</t>
+  </si>
+  <si>
+    <t>学习servlet的有关知识</t>
+  </si>
+  <si>
+    <t>2018.5.7</t>
+  </si>
+  <si>
+    <t>19：00-21：00</t>
+  </si>
+  <si>
+    <t>理解MVC设计模式，处理工程</t>
+  </si>
+  <si>
+    <t>学习完成</t>
+  </si>
+  <si>
+    <t>2018.5.8</t>
+  </si>
+  <si>
+    <t>学习jpa</t>
+  </si>
+  <si>
+    <t>2018.5.9</t>
+  </si>
+  <si>
+    <t>了解了一些有关Hibernate</t>
+  </si>
+  <si>
+    <t>2018.5.10</t>
+  </si>
+  <si>
+    <t>19：00-21：30</t>
+  </si>
+  <si>
+    <t>学习数据库</t>
+  </si>
+  <si>
+    <t>2018.5.11</t>
+  </si>
+  <si>
+    <t>2018.5.12</t>
+  </si>
+  <si>
+    <t>建立实体task</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>2018.5.13</t>
+  </si>
+  <si>
+    <t>建立实体的实现</t>
+  </si>
+  <si>
+    <t>还在进行中</t>
+  </si>
+  <si>
+    <t>2018.5.14</t>
+  </si>
+  <si>
+    <t>10：00-13：00</t>
+  </si>
+  <si>
+    <t>2018.5.15</t>
+  </si>
+  <si>
+    <t>14：00-18：00</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>2018.5.16</t>
+  </si>
+  <si>
+    <t>18:00-21:00</t>
+  </si>
+  <si>
+    <t>学习安装flask</t>
+  </si>
+  <si>
+    <t>安装成功</t>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>建立homework</t>
+  </si>
+  <si>
+    <t>建立成功</t>
+  </si>
+  <si>
+    <t>2018.5.18</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>发现环境不统一，重新调配</t>
+  </si>
+  <si>
+    <t>配置成功</t>
+  </si>
+  <si>
+    <t>2018.5.19</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>项目归位统一，可以运行</t>
+  </si>
+  <si>
+    <t>2018.5.20</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>再次建立自己的homework</t>
   </si>
 </sst>
 </file>
@@ -45,167 +219,171 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -219,19 +397,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,163 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,26 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,22 +625,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,38 +688,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,145 +706,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -732,7 +910,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -777,9 +955,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -812,9 +990,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -989,50 +1167,332 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="36.5833333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="65" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" ht="60.75" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>